--- a/with logs for unschedule with saturday sunday/excel_schedules/section_3C_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_3C_genetic_schedule.xlsx
@@ -520,9 +520,9 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>AXL 416 - Advanced Excel
+          <t>IB 420 - International Business
 3C
-Room 189</t>
+Room 215</t>
         </is>
       </c>
     </row>
@@ -548,6 +548,7 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
+      <c r="B5" s="2" t="n"/>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -555,7 +556,103 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>BS 422 - Business Strategy
+3C
+Room 217</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>BA 418 - Business Analytics
+3C
+Room 193</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>FM 423 - Financial Modeling
+3C
+Room 410</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>BS 417 - Business Statistics
 3C
@@ -563,102 +660,6 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>FM 423 - Financial Modeling
-3C
-Room 410</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>DMK 421 - Digital Marketing
-3C
-Room 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>IB 420 - International Business
-3C
-Room 215</t>
-        </is>
-      </c>
-    </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
@@ -696,52 +697,50 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>AAC 419 - Advanced Accounting
 3C
 Room 410</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>FM 423 - Financial Modeling
+3C
+Room 218</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>BA 418 - Business Analytics
 3C
 Room 213</t>
         </is>
       </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>FM 423 - Financial Modeling
-3C
-Room 218</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="n"/>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -750,6 +749,7 @@
         </is>
       </c>
       <c r="B25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -768,15 +768,15 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B2:B5"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
